--- a/wc_results.xlsx
+++ b/wc_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamiewelsh/Python/rugby/RugbyPredictionModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C97CD6F-C3A2-6445-A418-C977778188D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25BBA63-1020-134C-8713-DEFB9F9A6B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{5FE4B084-E752-894B-996D-0BB86243040E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5FE4B084-E752-894B-996D-0BB86243040E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>South Africa</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>Australia</t>
   </si>
 </sst>
 </file>
@@ -436,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C33C37-9AC9-4145-81D1-94DC80246C6E}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,6 +557,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
